--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.342097437188063</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.335949170040988</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.222732473530194</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4926635316038712</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.9887935555455953</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.9950564921718968</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.9725298054032629</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.1306874951941561</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.1728406805807347</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.1573914149818343</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -355,7 +355,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1780967283933799</v>
+        <v>38344.87534626039</v>
       </c>
       <c r="B1" t="n">
         <v>0</v>
@@ -363,297 +363,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2351828516128237</v>
+        <v>28546.47583871961</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1487300534282336</v>
+        <v>6361.474435196194</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1457966153261076</v>
+        <v>2633.026159334126</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.1424186383847219</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.1780967283933799</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.2351828516128237</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.1487300534282336</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.144356497661067</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.142719697659989</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.1890087219286714</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.1660904943591996</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.2668854802387444</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.144356497661067</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.1503651034042832</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.1437563787632876</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.2598326417899214</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.157227372346596</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.182571131315426</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.1489788565653799</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1.440898345153664</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.296394799054373</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1.236997635933806</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1.489657210401891</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1.572990543735224</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1.105496453900709</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1.179078014184397</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>0.9468085106382977</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1.342097437188063</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1.335949170040988</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1.222732473530194</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.4926635316038712</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.9887935555455953</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.9950564921718968</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>0.9725298054032629</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.1306874951941561</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.1728406805807347</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.1573914149818343</v>
-      </c>
-      <c r="B38" t="n">
         <v>0</v>
       </c>
     </row>

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -345,47 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>38344.87534626039</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>28546.47583871961</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6361.474435196194</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2633.026159334126</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -345,14 +345,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1" t="n">
+        <v>37898.33531510107</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -355,13 +355,225 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B1" t="n">
-        <v>37898.33531510107</v>
+        <v>26499.75</v>
       </c>
       <c r="C1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>23715.25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85583.30862733473</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89948.11740290544</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30816</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30352.75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>91317.97919762258</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63972.51114413076</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73979.94056463597</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33986</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30437.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35331.75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26038.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11926.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>section3-R_GFP.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36767.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>section4-L_GFP.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23359.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>section4-R_GFP.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>27152.75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>section4-L_GFP.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>33053.75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>section4-R_GFP.tif</t>
+        </is>
       </c>
     </row>
   </sheetData>
